--- a/Munkafüzet1.xlsx
+++ b/Munkafüzet1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B694EE3-13B6-4701-868C-195F216F1B1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C638AD-4DF0-4E62-9496-87D4DF509B52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{37FC44BE-ABFE-4D04-907E-3E4515634859}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Mérföldkő</t>
   </si>
@@ -63,12 +63,6 @@
     <t>3. feladat - Ütemterv megvalósítása</t>
   </si>
   <si>
-    <t>Célok meghatározása</t>
-  </si>
-  <si>
-    <t>Célok véglegesítése</t>
-  </si>
-  <si>
     <t>Forráskód írása</t>
   </si>
   <si>
@@ -84,8 +78,29 @@
     <t>Felépítés tervezése</t>
   </si>
   <si>
+    <t>Projekt munka prezentálása</t>
+  </si>
+  <si>
     <t>Programozási nyelv, 
-keretrendszerek</t>
+keretrendszerek, etc..</t>
+  </si>
+  <si>
+    <t>Alpha Version</t>
+  </si>
+  <si>
+    <t>Alpha verzió kiadása</t>
+  </si>
+  <si>
+    <t>Beta Version</t>
+  </si>
+  <si>
+    <t>Beta verzió kiadása</t>
+  </si>
+  <si>
+    <t>4. feladat - Projektmunka leadása</t>
+  </si>
+  <si>
+    <t>Prezentáció</t>
   </si>
 </sst>
 </file>
@@ -138,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,6 +191,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -184,24 +225,24 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191B658E-283B-4F4C-A1E9-E086075366B9}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,244 +592,274 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7">
+      <c r="D2" s="1"/>
+      <c r="E2" s="2">
         <v>45551</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7">
+      <c r="D3" s="1"/>
+      <c r="E3" s="2">
         <v>45551</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7">
+      <c r="D4" s="1"/>
+      <c r="E4" s="2">
         <v>45558</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7">
+      <c r="D5" s="1"/>
+      <c r="E5" s="2">
         <v>45558</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6">
+        <v>45582</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7">
-        <v>45579</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6">
+        <v>45589</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7">
-        <v>45589</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6">
+        <v>45596</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
+        <v>45603</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7">
-        <v>45600</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="2">
+        <v>45610</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7">
-        <v>45614</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6" t="s">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2">
+        <v>45624</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
+  <mergeCells count="56">
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
